--- a/data/Course_Catalog.xlsx
+++ b/data/Course_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\PA_Data_Analysis\PA-Student-Performance-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147039A-5471-43DD-8DD3-6CCCFAF5C0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D6F3AC-591D-42E3-8D27-BFE1877EE869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2235" windowWidth="25440" windowHeight="15270" xr2:uid="{70A28FF9-4364-4C66-8DA6-11A34FCC14D1}"/>
+    <workbookView xWindow="14890" yWindow="0" windowWidth="10160" windowHeight="16010" xr2:uid="{70A28FF9-4364-4C66-8DA6-11A34FCC14D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Catalog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Semester</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Simulation for Physician Assistants III</t>
+  </si>
+  <si>
+    <t>Credit Hours</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
   </si>
 </sst>
 </file>
@@ -568,15 +574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF225C01-CB89-41B6-B38E-1648C9053714}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +592,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -597,8 +609,14 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -608,8 +626,14 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -619,8 +643,14 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -630,8 +660,14 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -641,8 +677,14 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -652,8 +694,14 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -663,8 +711,14 @@
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -674,8 +728,14 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -685,8 +745,14 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -696,8 +762,14 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -707,8 +779,14 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -718,8 +796,14 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -729,8 +813,14 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -740,8 +830,14 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -751,8 +847,14 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -762,8 +864,14 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -773,8 +881,14 @@
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -784,8 +898,14 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -795,8 +915,14 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -806,8 +932,14 @@
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -816,6 +948,12 @@
       </c>
       <c r="C22" t="s">
         <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
